--- a/example_spreadsheets/game_collection.xlsx
+++ b/example_spreadsheets/game_collection.xlsx
@@ -1040,7 +1040,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1059,7 +1059,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -1081,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1093,9 +1092,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,7 +1541,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1816,7 +1812,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3492,7 +3488,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3649,7 +3645,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3824,10 +3820,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3842,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -3857,7 +3853,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3868,7 +3864,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3879,7 +3875,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4787,7 +4783,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4798,7 +4794,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4820,7 +4816,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4834,7 +4830,7 @@
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4908,7 +4904,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4941,7 +4937,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4996,7 +4992,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5007,7 +5003,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5607,13 +5603,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5764,7 +5760,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">

--- a/example_spreadsheets/game_collection.xlsx
+++ b/example_spreadsheets/game_collection.xlsx
@@ -28,6 +28,7 @@
     <sheet state="visible" name="Wii U" sheetId="23" r:id="rId26"/>
     <sheet state="visible" name="Playstation 4" sheetId="24" r:id="rId27"/>
     <sheet state="visible" name="Nintendo Switch" sheetId="25" r:id="rId28"/>
+    <sheet state="visible" name="Playstation 5" sheetId="26" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="429">
   <si>
     <t>Title</t>
   </si>
@@ -370,12 +371,24 @@
     <t>Strikers 1945 Plus</t>
   </si>
   <si>
+    <t>Alien Trilogy</t>
+  </si>
+  <si>
     <t>Castlevania Symphony Of The Night Limited Edition</t>
   </si>
   <si>
     <t>Chrono Cross</t>
   </si>
   <si>
+    <t>Crash Bandicoot</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot 2 Cortex Strikes Back</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot 3 Warped</t>
+  </si>
+  <si>
     <t>Dino Crisis</t>
   </si>
   <si>
@@ -385,6 +398,9 @@
     <t>Driver</t>
   </si>
   <si>
+    <t>Driver 2</t>
+  </si>
+  <si>
     <t>Fear Effect</t>
   </si>
   <si>
@@ -424,6 +440,12 @@
     <t>Overblood</t>
   </si>
   <si>
+    <t>Parasite Eve</t>
+  </si>
+  <si>
+    <t>Rayman</t>
+  </si>
+  <si>
     <t>Resident Evil</t>
   </si>
   <si>
@@ -433,12 +455,21 @@
     <t>Resident Evil 3 Nemesis</t>
   </si>
   <si>
+    <t>Resident Evil Survivor</t>
+  </si>
+  <si>
+    <t>Ridge Racer Type 4</t>
+  </si>
+  <si>
     <t>Rollcage</t>
   </si>
   <si>
     <t>Silent Hill</t>
   </si>
   <si>
+    <t>Spyro the Dragon</t>
+  </si>
+  <si>
     <t>Syphon Filter 2</t>
   </si>
   <si>
@@ -451,6 +482,9 @@
     <t>Tenchu Stealth Assassins</t>
   </si>
   <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
     <t>Tomb Raider II</t>
   </si>
   <si>
@@ -463,7 +497,7 @@
     <t>Tomb Raider Chronicles</t>
   </si>
   <si>
-    <t>Tony Hawk</t>
+    <t>Tony Hawk's Skateboarding</t>
   </si>
   <si>
     <t>Tony Hawk 2</t>
@@ -493,12 +527,24 @@
     <t>1080 Snowboarding</t>
   </si>
   <si>
+    <t>Armorines Project Swarm</t>
+  </si>
+  <si>
     <t>Banjo Kazooie</t>
   </si>
   <si>
     <t>Banjo Tooie</t>
   </si>
   <si>
+    <t>Blast Corps</t>
+  </si>
+  <si>
+    <t>Bomberman 64</t>
+  </si>
+  <si>
+    <t>Castlevania Legacy of Darkness</t>
+  </si>
+  <si>
     <t>Conker's Bad Fur Day</t>
   </si>
   <si>
@@ -511,9 +557,21 @@
     <t>Doom 64</t>
   </si>
   <si>
+    <t>Duke Nukem 64</t>
+  </si>
+  <si>
+    <t>Extreme G</t>
+  </si>
+  <si>
+    <t>Fighters Destiny</t>
+  </si>
+  <si>
     <t>F Zero X</t>
   </si>
   <si>
+    <t>Forsaken</t>
+  </si>
+  <si>
     <t>Hybrid Heaven</t>
   </si>
   <si>
@@ -529,12 +587,27 @@
     <t>Mario Kart 64</t>
   </si>
   <si>
+    <t>Mystical Ninja Starring Goemon</t>
+  </si>
+  <si>
+    <t>Operation Winback</t>
+  </si>
+  <si>
     <t>Perfect Dark</t>
   </si>
   <si>
     <t>Pilotwings 64</t>
   </si>
   <si>
+    <t>Pokemon Snap</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>Quake II</t>
+  </si>
+  <si>
     <t>Rayman 2 The Great Escape</t>
   </si>
   <si>
@@ -544,6 +617,9 @@
     <t>Snowboard Kids</t>
   </si>
   <si>
+    <t>South Park</t>
+  </si>
+  <si>
     <t>Space Station Silicon Valley</t>
   </si>
   <si>
@@ -562,12 +638,27 @@
     <t>Top Gear Rally</t>
   </si>
   <si>
+    <t>Turok Dinosaur Hunter</t>
+  </si>
+  <si>
+    <t>Turok Rage Wars</t>
+  </si>
+  <si>
     <t>Turok 2 Seeds Of Evil</t>
   </si>
   <si>
     <t>Wave Race 64</t>
   </si>
   <si>
+    <t>WCW vs NWO Revenge</t>
+  </si>
+  <si>
+    <t>Wipeout</t>
+  </si>
+  <si>
+    <t>WWF No Mercy</t>
+  </si>
+  <si>
     <t>Zelda Ocarina Of Time</t>
   </si>
   <si>
@@ -583,6 +674,9 @@
     <t>The House Of The Dead 2</t>
   </si>
   <si>
+    <t>Hydro Thunder</t>
+  </si>
+  <si>
     <t>Jet Set Radio</t>
   </si>
   <si>
@@ -598,18 +692,45 @@
     <t>Shenmue II</t>
   </si>
   <si>
+    <t>Virtua Tennis</t>
+  </si>
+  <si>
+    <t>Aggressive Inline</t>
+  </si>
+  <si>
+    <t>Alone In The Dark The New Nightmare</t>
+  </si>
+  <si>
+    <t>Beyond Good and Evil</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
     <t>Burnout 3 Takedown</t>
   </si>
   <si>
+    <t>Burnout Revenge</t>
+  </si>
+  <si>
     <t>Canis Canem Edit</t>
   </si>
   <si>
+    <t>Clock Tower 3</t>
+  </si>
+  <si>
     <t>Cold Fear</t>
   </si>
   <si>
+    <t>Crazy Taxi</t>
+  </si>
+  <si>
     <t>Devil May Cry</t>
   </si>
   <si>
+    <t>Devil May Cry 3</t>
+  </si>
+  <si>
     <t>Echo Night Beyond</t>
   </si>
   <si>
@@ -625,6 +746,9 @@
     <t>Final Fantasy X</t>
   </si>
   <si>
+    <t>Final Fantasy X-2</t>
+  </si>
+  <si>
     <t>Final Fantasy XII</t>
   </si>
   <si>
@@ -643,30 +767,54 @@
     <t>Grand Theft Auto Vice City</t>
   </si>
   <si>
+    <t>Hack Infection</t>
+  </si>
+  <si>
     <t>Half Life</t>
   </si>
   <si>
     <t>Haunting Ground</t>
   </si>
   <si>
+    <t>Hitman 2</t>
+  </si>
+  <si>
     <t>Ico</t>
   </si>
   <si>
     <t>Jak And Daxter The Precursor Legacy</t>
   </si>
   <si>
-    <t>Jak &amp; Daxter 2 Renegade</t>
+    <t>Jak II Renegade</t>
+  </si>
+  <si>
+    <t>Just Cause</t>
   </si>
   <si>
     <t>Killer 7</t>
   </si>
   <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts 2</t>
+  </si>
+  <si>
     <t>Kuon</t>
   </si>
   <si>
+    <t>Lara Croft Tomb Raider Anniversary</t>
+  </si>
+  <si>
     <t>Manhunt</t>
   </si>
   <si>
+    <t>Medal of Honor Frontline</t>
+  </si>
+  <si>
+    <t>Mercenaries</t>
+  </si>
+  <si>
     <t>Metal Gear Solid 2</t>
   </si>
   <si>
@@ -679,6 +827,9 @@
     <t>Metal Gear Solid 3 Subsistence</t>
   </si>
   <si>
+    <t>Obscure</t>
+  </si>
+  <si>
     <t>Okami</t>
   </si>
   <si>
@@ -691,6 +842,12 @@
     <t>Prince Of Persia Sands Of Time</t>
   </si>
   <si>
+    <t>Prince Of Persia Warrior Within</t>
+  </si>
+  <si>
+    <t>Prince Of Persia Two Thrones</t>
+  </si>
+  <si>
     <t>Project Zero</t>
   </si>
   <si>
@@ -706,18 +863,33 @@
     <t>Ratchet &amp; Clank</t>
   </si>
   <si>
+    <t>Ratchet &amp; Clank 2 Locked &amp; Loaded</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank 3</t>
+  </si>
+  <si>
     <t>Resident Evil Code Veronica X</t>
   </si>
   <si>
+    <t>Resident Evil Dead Aim</t>
+  </si>
+  <si>
     <t>Resident Evil Outbreak</t>
   </si>
   <si>
+    <t>Rogue Galaxy</t>
+  </si>
+  <si>
     <t>The Simpsons Hit And Run</t>
   </si>
   <si>
     <t>Silent Hill 2</t>
   </si>
   <si>
+    <t>Silent Hill 2 Director's Cut Platinum</t>
+  </si>
+  <si>
     <t>Silent Hill 3</t>
   </si>
   <si>
@@ -730,36 +902,93 @@
     <t>Shadow Of The Colossus</t>
   </si>
   <si>
+    <t>Smuggler's Run</t>
+  </si>
+  <si>
+    <t>State Of Emergency</t>
+  </si>
+  <si>
+    <t>Stuntman</t>
+  </si>
+  <si>
     <t>SSX</t>
   </si>
   <si>
     <t>SSX Tricky</t>
   </si>
   <si>
+    <t>SSX 3</t>
+  </si>
+  <si>
     <t>The Thing</t>
   </si>
   <si>
+    <t>Time Crisis 2</t>
+  </si>
+  <si>
     <t>Time Splitters 2</t>
   </si>
   <si>
+    <t>Tomb Raider Angel Of Darkness</t>
+  </si>
+  <si>
+    <t>Tomb Raider Legend</t>
+  </si>
+  <si>
     <t>Tony Hawk 3</t>
   </si>
   <si>
     <t>Tony Hawk 4</t>
   </si>
   <si>
+    <t>Viewtiful Joe</t>
+  </si>
+  <si>
+    <t>Virtua Fighter 4</t>
+  </si>
+  <si>
+    <t>The Warriors</t>
+  </si>
+  <si>
+    <t>XG3 Extreme G Racing</t>
+  </si>
+  <si>
     <t>Yakuza</t>
   </si>
   <si>
     <t>Zone Of The Enders</t>
   </si>
   <si>
+    <t>Zone Of The Enders 2nd Runner</t>
+  </si>
+  <si>
+    <t>Call Of Cthulhu Dark Corners Of The Earth</t>
+  </si>
+  <si>
+    <t>Chronicles Of Riddick</t>
+  </si>
+  <si>
+    <t>Doom 3</t>
+  </si>
+  <si>
+    <t>Elder Scrolls III Morrowind</t>
+  </si>
+  <si>
     <t>Halo 2</t>
   </si>
   <si>
     <t>Ninja Gaiden</t>
   </si>
   <si>
+    <t>Splinter Cell</t>
+  </si>
+  <si>
+    <t>Splinter Cell Pandora Tomorrow</t>
+  </si>
+  <si>
+    <t>Star Wars Knights Of The Old Republic</t>
+  </si>
+  <si>
     <t>Eternal Darkness</t>
   </si>
   <si>
@@ -781,12 +1010,21 @@
     <t>Resident Evil 4</t>
   </si>
   <si>
-    <t>Star Wars Rogue Squadron II</t>
+    <t>Star Fox Adventures</t>
+  </si>
+  <si>
+    <t>Star Wars Bounty Hunter</t>
+  </si>
+  <si>
+    <t>Star Wars Rogue Leader</t>
   </si>
   <si>
     <t>Super Mario Sunshine</t>
   </si>
   <si>
+    <t>Wave Race Blue Storm</t>
+  </si>
+  <si>
     <t>Zelda Wind Waker Limited Edition</t>
   </si>
   <si>
@@ -928,18 +1166,24 @@
     <t>Street Fighter IV</t>
   </si>
   <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Grand Theft Auto iV</t>
+    <t>Deus Ex Human Revolution</t>
+  </si>
+  <si>
+    <t>Dishonored</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto IV</t>
+  </si>
+  <si>
+    <t>ico &amp; Shadow Of The Colossus Collection</t>
+  </si>
+  <si>
+    <t>Killzone 2</t>
   </si>
   <si>
     <t>The Last Of Us</t>
   </si>
   <si>
-    <t>Killzone 2</t>
-  </si>
-  <si>
     <t>Metal Gear Solid HD Collection</t>
   </si>
   <si>
@@ -955,9 +1199,15 @@
     <t>Resident Evil 6</t>
   </si>
   <si>
+    <t>Resident Evil Revelations</t>
+  </si>
+  <si>
     <t>Resistance Fall Of Man</t>
   </si>
   <si>
+    <t>Tomb Raider Trilogy</t>
+  </si>
+  <si>
     <t>Bravely Default</t>
   </si>
   <si>
@@ -967,9 +1217,6 @@
     <t>Metroid Samus Returns</t>
   </si>
   <si>
-    <t>Resident Evil Revelations</t>
-  </si>
-  <si>
     <t>Zelda A Link Between Worlds</t>
   </si>
   <si>
@@ -994,15 +1241,24 @@
     <t>Bloodborne Game Of The Year</t>
   </si>
   <si>
+    <t>Dark Souls Trilogy</t>
+  </si>
+  <si>
     <t>Death Stranding</t>
   </si>
   <si>
-    <t>Dark Souls Trilogy</t>
+    <t>Deus Ex Mankind Divided</t>
+  </si>
+  <si>
+    <t>Dishonored 2</t>
   </si>
   <si>
     <t>Final Fantasy XII The Zodiac Age</t>
   </si>
   <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
     <t>The Last Of Us Remastered</t>
   </si>
   <si>
@@ -1012,9 +1268,24 @@
     <t>Metal Gear Solid V The Phantom Pain</t>
   </si>
   <si>
+    <t>Nier Automata Game Of The Yorha Edition</t>
+  </si>
+  <si>
+    <t>Prey</t>
+  </si>
+  <si>
     <t>The Outer Worlds</t>
   </si>
   <si>
+    <t>Resident Evil Origins Collection</t>
+  </si>
+  <si>
+    <t>Resident Evil Revelations 2</t>
+  </si>
+  <si>
+    <t>Resident Evil 3</t>
+  </si>
+  <si>
     <t>Resident Evil 7 Biohazard</t>
   </si>
   <si>
@@ -1033,7 +1304,25 @@
     <t>Xenoblade Chronicles 2</t>
   </si>
   <si>
+    <t>Xenoblade Chronicles 3</t>
+  </si>
+  <si>
     <t>Zelda Breath Of The Wild</t>
+  </si>
+  <si>
+    <t>Deathloop</t>
+  </si>
+  <si>
+    <t>Demon's Souls</t>
+  </si>
+  <si>
+    <t>Elden Ring Launch Edition</t>
+  </si>
+  <si>
+    <t>The Last Of Us Part 1</t>
+  </si>
+  <si>
+    <t>Resident Evil Village</t>
   </si>
 </sst>
 </file>
@@ -1045,15 +1334,18 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1170,6 +1462,10 @@
 </file>
 
 <file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1403,9 +1699,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.0"/>
+    <col customWidth="1" min="1" max="1" width="26.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1619,9 +1915,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="49.43"/>
+    <col customWidth="1" min="1" max="1" width="43.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1651,7 +1947,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1662,7 +1958,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1893,7 +2189,7 @@
         <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -2036,7 +2332,7 @@
         <v>147</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>24</v>
@@ -2044,12 +2340,133 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2066,10 +2483,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.0"/>
-    <col customWidth="1" min="2" max="2" width="17.57"/>
+    <col customWidth="1" min="1" max="1" width="34.13"/>
+    <col customWidth="1" min="2" max="2" width="15.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2085,7 +2502,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2096,7 +2513,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2107,7 +2524,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2118,7 +2535,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2129,18 +2546,18 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2151,29 +2568,29 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -2184,18 +2601,18 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -2206,62 +2623,62 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2272,7 +2689,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2283,29 +2700,29 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -2316,7 +2733,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -2327,18 +2744,18 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -2349,18 +2766,18 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -2371,18 +2788,18 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -2393,7 +2810,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2404,7 +2821,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2415,12 +2832,243 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2437,9 +3085,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.43"/>
+    <col customWidth="1" min="1" max="1" width="18.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2455,7 +3103,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2477,9 +3125,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="41.43"/>
+    <col customWidth="1" min="1" max="1" width="36.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2495,7 +3143,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2506,7 +3154,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2517,7 +3165,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2528,7 +3176,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2539,7 +3187,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2550,7 +3198,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2561,7 +3209,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2572,12 +3220,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2594,9 +3264,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.29"/>
+    <col customWidth="1" min="1" max="1" width="30.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2612,7 +3282,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2623,7 +3293,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2634,7 +3304,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2645,7 +3315,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2656,7 +3326,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2667,7 +3337,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2678,7 +3348,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2689,7 +3359,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -2700,7 +3370,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -2711,7 +3381,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2722,7 +3392,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -2733,7 +3403,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -2744,7 +3414,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -2755,7 +3425,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -2766,7 +3436,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -2777,7 +3447,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -2788,7 +3458,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2799,7 +3469,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2810,7 +3480,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -2821,7 +3491,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -2832,7 +3502,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -2843,7 +3513,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -2854,7 +3524,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -2865,7 +3535,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -2876,7 +3546,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -2887,7 +3557,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -2898,7 +3568,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -2909,7 +3579,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -2920,7 +3590,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2931,7 +3601,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2942,7 +3612,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -2953,7 +3623,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -2964,7 +3634,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -2975,7 +3645,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -2986,7 +3656,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -2997,7 +3667,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -3008,7 +3678,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
@@ -3019,7 +3689,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -3030,7 +3700,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
@@ -3041,7 +3711,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -3052,7 +3722,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
@@ -3063,7 +3733,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -3074,7 +3744,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -3085,7 +3755,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -3096,7 +3766,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -3107,7 +3777,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -3118,7 +3788,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -3129,7 +3799,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -3140,7 +3810,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -3151,7 +3821,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
@@ -3162,7 +3832,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -3173,12 +3843,419 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" ht="18.75" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3195,7 +4272,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="41.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -3210,7 +4290,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3221,12 +4301,89 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3243,9 +4400,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="42.57"/>
+    <col customWidth="1" min="1" max="1" width="37.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3261,7 +4418,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3272,7 +4429,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3283,7 +4440,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3294,7 +4451,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3305,7 +4462,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3316,7 +4473,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3327,7 +4484,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3338,7 +4495,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3349,7 +4506,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -3360,7 +4517,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3371,12 +4528,45 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3393,10 +4583,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="42.29"/>
-    <col customWidth="1" min="2" max="2" width="39.71"/>
+    <col customWidth="1" min="1" max="1" width="37.0"/>
+    <col customWidth="1" min="2" max="2" width="34.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3412,7 +4602,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3423,7 +4613,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3434,7 +4624,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -3445,7 +4635,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>254</v>
+        <v>333</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3456,7 +4646,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3478,7 +4668,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3489,7 +4679,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3500,7 +4690,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -3511,7 +4701,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3522,7 +4712,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -3533,7 +4723,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -3555,9 +4745,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.86"/>
+    <col customWidth="1" min="1" max="1" width="34.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3573,7 +4763,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3584,7 +4774,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3606,9 +4796,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.57"/>
+    <col customWidth="1" min="1" max="1" width="35.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3624,7 +4814,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3635,7 +4825,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3646,7 +4836,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3657,7 +4847,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3668,7 +4858,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3679,7 +4869,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3690,7 +4880,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3701,7 +4891,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3712,7 +4902,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -3723,7 +4913,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3734,7 +4924,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -3745,7 +4935,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -3756,7 +4946,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -3767,7 +4957,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -3778,10 +4968,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -3803,9 +4993,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.86"/>
+    <col customWidth="1" min="1" max="1" width="17.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3909,9 +5099,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.0"/>
+    <col customWidth="1" min="1" max="1" width="35.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3927,7 +5117,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3938,7 +5128,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3949,7 +5139,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3960,7 +5150,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3971,7 +5161,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3982,7 +5172,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3993,7 +5183,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4004,7 +5194,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4015,7 +5205,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4026,7 +5216,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -4037,7 +5227,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -4048,7 +5238,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -4059,7 +5249,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -4070,7 +5260,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -4081,7 +5271,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -4092,7 +5282,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -4103,7 +5293,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -4114,7 +5304,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -4125,7 +5315,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -4136,7 +5326,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -4147,7 +5337,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -4169,9 +5359,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.29"/>
+    <col customWidth="1" min="1" max="1" width="34.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4187,7 +5377,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4198,7 +5388,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4209,7 +5399,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4220,7 +5410,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4231,7 +5421,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4240,9 +5430,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4253,7 +5443,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4264,7 +5454,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4275,12 +5465,67 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4297,9 +5542,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.29"/>
+    <col customWidth="1" min="1" max="1" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4315,7 +5560,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>390</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -4326,7 +5571,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>308</v>
+        <v>391</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -4337,7 +5582,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>309</v>
+        <v>392</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4348,7 +5593,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4359,7 +5604,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>311</v>
+        <v>393</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -4370,7 +5615,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>312</v>
+        <v>394</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -4381,7 +5626,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -4403,9 +5648,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.71"/>
+    <col customWidth="1" min="1" max="1" width="26.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4421,7 +5666,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4432,7 +5677,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4443,7 +5688,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4465,10 +5710,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.0"/>
-    <col customWidth="1" min="2" max="2" width="7.57"/>
+    <col customWidth="1" min="1" max="1" width="39.38"/>
+    <col customWidth="1" min="2" max="2" width="6.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4484,7 +5729,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4495,7 +5740,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4506,10 +5751,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>319</v>
+        <v>401</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -4517,10 +5762,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>320</v>
+        <v>402</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -4528,7 +5773,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4539,7 +5784,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4550,7 +5795,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4561,7 +5806,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4572,7 +5817,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>325</v>
+        <v>407</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4583,7 +5828,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>408</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -4594,12 +5839,111 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>326</v>
+        <v>409</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4616,9 +5960,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.71"/>
+    <col customWidth="1" min="1" max="1" width="34.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4634,7 +5978,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4645,7 +5989,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4656,7 +6000,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4667,7 +6011,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4678,7 +6022,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>331</v>
+        <v>421</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -4689,12 +6033,108 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="34.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4711,9 +6151,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.86"/>
+    <col customWidth="1" min="1" max="1" width="41.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5026,9 +6466,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.57"/>
+    <col customWidth="1" min="1" max="1" width="25.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5077,9 +6517,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="73.0"/>
+    <col customWidth="1" min="1" max="1" width="63.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5469,9 +6909,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.0"/>
+    <col customWidth="1" min="1" max="1" width="24.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5509,9 +6949,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.29"/>
+    <col customWidth="1" min="1" max="1" width="30.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5670,9 +7110,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.57"/>
+    <col customWidth="1" min="1" max="1" width="31.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5721,9 +7161,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.14"/>
+    <col customWidth="1" min="1" max="1" width="15.88"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/example_spreadsheets/game_collection.xlsx
+++ b/example_spreadsheets/game_collection.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="521">
   <si>
     <t>Title</t>
   </si>
@@ -374,6 +374,9 @@
     <t>Alien Trilogy</t>
   </si>
   <si>
+    <t>Blood Omen Legacy Of Kain</t>
+  </si>
+  <si>
     <t>Castlevania Symphony Of The Night Limited Edition</t>
   </si>
   <si>
@@ -425,9 +428,15 @@
     <t>Grand Theft Auto 2</t>
   </si>
   <si>
+    <t>Gran Turismo 2</t>
+  </si>
+  <si>
     <t>Koudelka</t>
   </si>
   <si>
+    <t>Legacy Of Kain Soul Reaver</t>
+  </si>
+  <si>
     <t>Metal Gear Solid</t>
   </si>
   <si>
@@ -512,6 +521,9 @@
     <t>Vagrant Story</t>
   </si>
   <si>
+    <t>WWF Smackdown 2 Know Your Role</t>
+  </si>
+  <si>
     <t>Wipeout 3</t>
   </si>
   <si>
@@ -578,6 +590,9 @@
     <t>Forsaken</t>
   </si>
   <si>
+    <t>Gex 64</t>
+  </si>
+  <si>
     <t>Glover</t>
   </si>
   <si>
@@ -596,6 +611,9 @@
     <t>Mario Kart 64</t>
   </si>
   <si>
+    <t>Mission Impossible</t>
+  </si>
+  <si>
     <t>Mystical Ninja Starring Goemon</t>
   </si>
   <si>
@@ -656,6 +674,9 @@
     <t>Turok 2 Seeds Of Evil</t>
   </si>
   <si>
+    <t>V Rally Edition 99</t>
+  </si>
+  <si>
     <t>Vigilante 8</t>
   </si>
   <si>
@@ -668,9 +689,15 @@
     <t>Wipeout</t>
   </si>
   <si>
+    <t>WWF Attitude</t>
+  </si>
+  <si>
     <t>WWF No Mercy</t>
   </si>
   <si>
+    <t>Yoshi's Story</t>
+  </si>
+  <si>
     <t>Zelda Ocarina Of Time</t>
   </si>
   <si>
@@ -692,7 +719,10 @@
     <t>Jet Set Radio</t>
   </si>
   <si>
-    <t>Legacy Of Kain Soul Reaver</t>
+    <t>MDK 2</t>
+  </si>
+  <si>
+    <t>The Nomad Soul</t>
   </si>
   <si>
     <t>Resident Evil Code Veronica</t>
@@ -728,6 +758,9 @@
     <t>Black</t>
   </si>
   <si>
+    <t>The Bouncer</t>
+  </si>
+  <si>
     <t>Burnout 3 Takedown</t>
   </si>
   <si>
@@ -746,6 +779,9 @@
     <t>Crazy Taxi</t>
   </si>
   <si>
+    <t>Dark Chronicle</t>
+  </si>
+  <si>
     <t>Dave Mirra Freestyle BMX 2</t>
   </si>
   <si>
@@ -755,12 +791,21 @@
     <t>Devil May Cry 3</t>
   </si>
   <si>
+    <t>Dragon Quest VIII Journey Of The Cursed King</t>
+  </si>
+  <si>
+    <t>Dynasty Warriors 2</t>
+  </si>
+  <si>
     <t>Echo Night Beyond</t>
   </si>
   <si>
     <t>Enter The Matrix</t>
   </si>
   <si>
+    <t>Forbidden Siren 2</t>
+  </si>
+  <si>
     <t>Forbidden Siren</t>
   </si>
   <si>
@@ -785,6 +830,9 @@
     <t>God Of War 2</t>
   </si>
   <si>
+    <t>Gran Turismo 3</t>
+  </si>
+  <si>
     <t>Grand Theft Auto III</t>
   </si>
   <si>
@@ -794,6 +842,9 @@
     <t>Grand Theft Auto Vice City</t>
   </si>
   <si>
+    <t>Gungrave</t>
+  </si>
+  <si>
     <t>Hack Infection</t>
   </si>
   <si>
@@ -833,9 +884,15 @@
     <t>Kuon</t>
   </si>
   <si>
+    <t>Legacy Of Kain Defiance</t>
+  </si>
+  <si>
     <t>Manhunt</t>
   </si>
   <si>
+    <t>MDK 2 Armageddon</t>
+  </si>
+  <si>
     <t>Medal of Honor Frontline</t>
   </si>
   <si>
@@ -908,9 +965,24 @@
     <t>Resident Evil Outbreak</t>
   </si>
   <si>
+    <t>Resident Evil 4</t>
+  </si>
+  <si>
     <t>Rogue Galaxy</t>
   </si>
   <si>
+    <t>Sos The Final Escape</t>
+  </si>
+  <si>
+    <t>Second Sight</t>
+  </si>
+  <si>
+    <t>Shadow Of The Colossus</t>
+  </si>
+  <si>
+    <t>Shadow Of Memories</t>
+  </si>
+  <si>
     <t>The Simpsons Hit And Run</t>
   </si>
   <si>
@@ -929,15 +1001,12 @@
     <t>Silent Hill Shattered Memories</t>
   </si>
   <si>
-    <t>Shadow Of The Colossus</t>
-  </si>
-  <si>
-    <t>Shadow Of Memories</t>
-  </si>
-  <si>
     <t>Smuggler's Run</t>
   </si>
   <si>
+    <t>Soul Reaver 2 Legacy Of Kain</t>
+  </si>
+  <si>
     <t>State Of Emergency</t>
   </si>
   <si>
@@ -962,6 +1031,9 @@
     <t>Time Splitters 2</t>
   </si>
   <si>
+    <t>Time Splitters Future Perfect</t>
+  </si>
+  <si>
     <t>Tomb Raider Angel of Darkness</t>
   </si>
   <si>
@@ -977,15 +1049,21 @@
     <t>Tony Hawk 4</t>
   </si>
   <si>
+    <t>The Warriors</t>
+  </si>
+  <si>
+    <t>We Love Katamari</t>
+  </si>
+  <si>
+    <t>Wipeout Fusion</t>
+  </si>
+  <si>
     <t>Viewtiful Joe</t>
   </si>
   <si>
     <t>Virtua Fighter 4</t>
   </si>
   <si>
-    <t>The Warriors</t>
-  </si>
-  <si>
     <t>XG3 Extreme G Racing</t>
   </si>
   <si>
@@ -1004,27 +1082,60 @@
     <t>Chronicles Of Riddick Escape From Butcher Bay</t>
   </si>
   <si>
+    <t>Commandos 2 Men Of Courage</t>
+  </si>
+  <si>
+    <t>Conker Live &amp; Reloaded</t>
+  </si>
+  <si>
+    <t>Deus Ex Invisible War</t>
+  </si>
+  <si>
     <t>Doom 3</t>
   </si>
   <si>
     <t>Elder Scrolls III Morrowind</t>
   </si>
   <si>
+    <t>Fable</t>
+  </si>
+  <si>
     <t>Fahrenheit</t>
   </si>
   <si>
+    <t>Grand Theft Auto Double Pack</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>Half Life 2</t>
+  </si>
+  <si>
     <t>Halo Combat Evolved</t>
   </si>
   <si>
     <t>Halo 2</t>
   </si>
   <si>
+    <t>Jsrf Jet Set Radio Future</t>
+  </si>
+  <si>
     <t>Max Payne</t>
   </si>
   <si>
+    <t>Metal Arms Glitch In The System</t>
+  </si>
+  <si>
     <t>Ninja Gaiden</t>
   </si>
   <si>
+    <t>Psychonauts</t>
+  </si>
+  <si>
+    <t>Spiderman 2</t>
+  </si>
+  <si>
     <t>Splinter Cell</t>
   </si>
   <si>
@@ -1043,6 +1154,15 @@
     <t>Star Wars Knights Of The Old Republic</t>
   </si>
   <si>
+    <t>Star Wars Knights Of The Old Republic II</t>
+  </si>
+  <si>
+    <t>The Suffering</t>
+  </si>
+  <si>
+    <t>Blood Omen 2</t>
+  </si>
+  <si>
     <t>Eternal Darkness</t>
   </si>
   <si>
@@ -1067,9 +1187,6 @@
     <t>Resident Evil Zero</t>
   </si>
   <si>
-    <t>Resident Evil 4</t>
-  </si>
-  <si>
     <t>Star Fox Adventures</t>
   </si>
   <si>
@@ -1130,6 +1247,9 @@
     <t>Zelda Spirit Tracks</t>
   </si>
   <si>
+    <t>Crisis Core Final Fantasy VII</t>
+  </si>
+  <si>
     <t>Metal Gear Solid Portable Ops</t>
   </si>
   <si>
@@ -1205,6 +1325,9 @@
     <t>Elder Scrolls V Skyrim</t>
   </si>
   <si>
+    <t>Enslaved Odyssey To The West</t>
+  </si>
+  <si>
     <t>The Evil Within</t>
   </si>
   <si>
@@ -1226,6 +1349,9 @@
     <t>Max Payne 3</t>
   </si>
   <si>
+    <t>Metal Gear Rising Revengeance</t>
+  </si>
+  <si>
     <t>Metro Last Light</t>
   </si>
   <si>
@@ -1256,6 +1382,9 @@
     <t>God Of War Ascension</t>
   </si>
   <si>
+    <t>God Of War Collection Volume 2</t>
+  </si>
+  <si>
     <t>God Of War Saga Dual Pack</t>
   </si>
   <si>
@@ -1355,6 +1484,9 @@
     <t>Dishonored 2</t>
   </si>
   <si>
+    <t>Final Fantasy X X 2 HD Remaster</t>
+  </si>
+  <si>
     <t>Final Fantasy XII The Zodiac Age</t>
   </si>
   <si>
@@ -1370,6 +1502,9 @@
     <t>The Last Of Us Part II</t>
   </si>
   <si>
+    <t>Mass Effect Legendary Edition</t>
+  </si>
+  <si>
     <t>Metal Gear Solid V Ground Zeroes</t>
   </si>
   <si>
@@ -1379,6 +1514,9 @@
     <t>Nier Automata Game Of The Yorha Edition</t>
   </si>
   <si>
+    <t>Nier Replicant Ver122474487139</t>
+  </si>
+  <si>
     <t>Prey</t>
   </si>
   <si>
@@ -1415,6 +1553,12 @@
     <t>Animal Crossing New Horizons</t>
   </si>
   <si>
+    <t>Metroid Dread</t>
+  </si>
+  <si>
+    <t>Metroid Prime Remastered</t>
+  </si>
+  <si>
     <t>Super Mario 3d All Stars</t>
   </si>
   <si>
@@ -1433,6 +1577,9 @@
     <t>Zelda Breath Of The Wild</t>
   </si>
   <si>
+    <t>Zelda Tears Of The Kingdom</t>
+  </si>
+  <si>
     <t>Deathloop</t>
   </si>
   <si>
@@ -1449,6 +1596,9 @@
   </si>
   <si>
     <t>Resident Evil Village</t>
+  </si>
+  <si>
+    <t>Resident Evil 4 Remake</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2235,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2096,7 +2246,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2159,7 +2309,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2170,7 +2320,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -2181,7 +2331,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -2192,7 +2342,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -2203,7 +2353,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -2214,7 +2364,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -2225,7 +2375,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -2236,7 +2386,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2247,7 +2397,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2258,7 +2408,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -2269,7 +2419,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -2280,7 +2430,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -2291,7 +2441,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -2302,7 +2452,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -2313,10 +2463,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -2324,7 +2474,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -2335,7 +2485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -2346,7 +2496,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -2357,10 +2507,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>24</v>
@@ -2368,7 +2518,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2379,7 +2529,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2390,7 +2540,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -2401,7 +2551,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -2412,7 +2562,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -2423,7 +2573,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -2434,7 +2584,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -2445,7 +2595,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -2456,7 +2606,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
@@ -2467,7 +2617,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -2478,7 +2628,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
@@ -2489,7 +2639,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -2500,7 +2650,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
@@ -2511,7 +2661,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -2522,7 +2672,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -2533,7 +2683,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -2544,7 +2694,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -2555,7 +2705,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -2566,7 +2716,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -2577,7 +2727,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -2588,10 +2738,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>24</v>
@@ -2602,9 +2752,64 @@
         <v>159</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2640,7 +2845,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2651,7 +2856,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2662,7 +2867,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2673,7 +2878,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2684,7 +2889,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2695,7 +2900,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2706,7 +2911,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2717,7 +2922,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -2728,7 +2933,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -2750,7 +2955,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -2761,7 +2966,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -2772,7 +2977,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -2783,7 +2988,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -2794,7 +2999,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -2805,7 +3010,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -2816,7 +3021,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2827,7 +3032,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2838,7 +3043,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -2849,7 +3054,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -2860,7 +3065,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -2871,18 +3076,18 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -2893,62 +3098,62 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2959,40 +3164,40 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -3003,73 +3208,73 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -3080,18 +3285,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -3102,7 +3307,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -3113,18 +3318,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -3135,7 +3340,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -3146,7 +3351,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -3157,7 +3362,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -3168,7 +3373,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -3179,18 +3384,18 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -3201,7 +3406,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
@@ -3212,7 +3417,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>23</v>
@@ -3223,7 +3428,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>23</v>
@@ -3234,23 +3439,78 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3285,7 +3545,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3325,7 +3585,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3336,7 +3596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3347,7 +3607,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3358,7 +3618,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3369,7 +3629,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3380,7 +3640,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3391,7 +3651,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3402,7 +3662,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3413,7 +3673,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -3424,7 +3684,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3435,7 +3695,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -3446,12 +3706,45 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3470,7 +3763,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.88"/>
+    <col customWidth="1" min="1" max="1" width="37.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3486,7 +3779,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3497,7 +3790,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3508,7 +3801,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3519,7 +3812,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3530,7 +3823,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3541,7 +3834,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3552,7 +3845,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3563,7 +3856,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3574,7 +3867,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -3585,7 +3878,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3596,7 +3889,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -3607,7 +3900,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -3618,7 +3911,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -3629,7 +3922,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -3640,7 +3933,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -3651,7 +3944,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -3662,7 +3955,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -3673,7 +3966,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -3684,7 +3977,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -3695,7 +3988,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -3706,7 +3999,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -3717,7 +4010,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -3728,7 +4021,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -3739,7 +4032,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -3750,7 +4043,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -3761,7 +4054,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -3772,7 +4065,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -3783,7 +4076,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -3794,7 +4087,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -3805,7 +4098,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -3816,7 +4109,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -3827,7 +4120,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -3838,7 +4131,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -3849,7 +4142,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -3860,7 +4153,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -3871,7 +4164,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -3882,7 +4175,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
@@ -3893,7 +4186,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -3904,7 +4197,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
@@ -3915,7 +4208,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -3926,7 +4219,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
@@ -3937,7 +4230,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -3948,7 +4241,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -3959,7 +4252,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -3970,7 +4263,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -3981,7 +4274,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -3992,7 +4285,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -4003,7 +4296,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -4014,7 +4307,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -4025,7 +4318,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
@@ -4036,7 +4329,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -4047,7 +4340,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
@@ -4058,7 +4351,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>23</v>
@@ -4069,7 +4362,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>23</v>
@@ -4080,7 +4373,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>23</v>
@@ -4091,7 +4384,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
@@ -4102,7 +4395,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>23</v>
@@ -4113,7 +4406,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>23</v>
@@ -4124,7 +4417,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>23</v>
@@ -4135,7 +4428,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
@@ -4146,7 +4439,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>23</v>
@@ -4157,7 +4450,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>23</v>
@@ -4168,7 +4461,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>23</v>
@@ -4179,7 +4472,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>23</v>
@@ -4190,7 +4483,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>23</v>
@@ -4201,7 +4494,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>23</v>
@@ -4212,7 +4505,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>23</v>
@@ -4223,7 +4516,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>23</v>
@@ -4234,7 +4527,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>23</v>
@@ -4245,7 +4538,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>23</v>
@@ -4256,7 +4549,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>23</v>
@@ -4267,7 +4560,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>23</v>
@@ -4278,7 +4571,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>23</v>
@@ -4289,7 +4582,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>23</v>
@@ -4300,7 +4593,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>23</v>
@@ -4311,7 +4604,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>23</v>
@@ -4322,7 +4615,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>23</v>
@@ -4333,7 +4626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>23</v>
@@ -4344,7 +4637,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>23</v>
@@ -4355,7 +4648,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>23</v>
@@ -4366,7 +4659,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>23</v>
@@ -4377,7 +4670,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>23</v>
@@ -4388,7 +4681,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>23</v>
@@ -4399,7 +4692,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>23</v>
@@ -4410,18 +4703,18 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>23</v>
@@ -4432,7 +4725,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>23</v>
@@ -4443,7 +4736,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>23</v>
@@ -4454,7 +4747,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>23</v>
@@ -4465,7 +4758,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>23</v>
@@ -4476,7 +4769,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>23</v>
@@ -4487,7 +4780,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>23</v>
@@ -4498,7 +4791,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>23</v>
@@ -4507,9 +4800,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" ht="18.75" customHeight="1">
+    <row r="95">
       <c r="A95" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>23</v>
@@ -4520,12 +4813,188 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" ht="18.75" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4560,7 +5029,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4571,7 +5040,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4582,7 +5051,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4593,7 +5062,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4604,7 +5073,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4615,7 +5084,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4626,7 +5095,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4637,7 +5106,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4648,7 +5117,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4659,7 +5128,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -4670,7 +5139,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -4681,7 +5150,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -4692,18 +5161,18 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -4714,12 +5183,177 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4754,7 +5388,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4765,7 +5399,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4776,7 +5410,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4787,7 +5421,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4798,7 +5432,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4809,7 +5443,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4820,7 +5454,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4831,7 +5465,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4842,7 +5476,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>342</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4853,7 +5487,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -4864,7 +5498,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>344</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -4875,7 +5509,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -4886,7 +5520,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -4897,7 +5531,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -4908,7 +5542,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -4919,7 +5553,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -4930,7 +5564,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -4941,7 +5575,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -4952,12 +5586,34 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4993,7 +5649,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -5004,7 +5660,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -5015,7 +5671,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -5026,7 +5682,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -5037,7 +5693,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -5059,7 +5715,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -5070,7 +5726,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -5081,7 +5737,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -5092,7 +5748,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -5103,7 +5759,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -5114,7 +5770,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -5154,7 +5810,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -5165,12 +5821,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5205,7 +5872,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -5216,7 +5883,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -5227,7 +5894,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -5238,7 +5905,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -5249,7 +5916,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -5260,7 +5927,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -5271,7 +5938,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -5282,7 +5949,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -5293,7 +5960,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -5304,7 +5971,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -5315,7 +5982,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -5326,7 +5993,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -5337,7 +6004,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -5348,7 +6015,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -5359,10 +6026,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -5508,7 +6175,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -5519,7 +6186,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -5530,7 +6197,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -5541,7 +6208,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -5552,7 +6219,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -5563,7 +6230,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -5574,7 +6241,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -5585,7 +6252,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -5596,7 +6263,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -5607,7 +6274,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -5618,7 +6285,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -5629,7 +6296,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -5640,7 +6307,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -5651,7 +6318,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -5662,7 +6329,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -5673,7 +6340,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -5684,7 +6351,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -5695,7 +6362,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -5706,7 +6373,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -5717,7 +6384,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -5728,12 +6395,34 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>149</v>
+        <v>439</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5768,7 +6457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -5779,7 +6468,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -5790,7 +6479,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -5801,7 +6490,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -5812,7 +6501,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -5823,7 +6512,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -5834,7 +6523,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -5845,10 +6534,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -5856,10 +6545,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -5867,7 +6556,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -5878,7 +6567,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -5889,7 +6578,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -5898,9 +6587,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14">
       <c r="A14" s="2" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -5909,9 +6598,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -5922,7 +6611,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -5933,7 +6622,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -5944,7 +6633,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -5955,7 +6644,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -5966,7 +6655,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -5977,7 +6666,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -5988,7 +6677,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -5999,7 +6688,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -6010,7 +6699,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -6021,7 +6710,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -6032,12 +6721,23 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6072,7 +6772,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -6083,7 +6783,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -6094,7 +6794,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -6105,7 +6805,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -6116,7 +6816,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -6127,7 +6827,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -6138,7 +6838,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -6178,7 +6878,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -6189,7 +6889,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -6200,7 +6900,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -6241,7 +6941,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -6252,7 +6952,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -6263,7 +6963,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -6274,7 +6974,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -6285,7 +6985,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -6296,7 +6996,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -6307,7 +7007,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -6318,7 +7018,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>247</v>
+        <v>483</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -6329,7 +7029,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>440</v>
+        <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -6340,7 +7040,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -6351,7 +7051,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -6362,7 +7062,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -6373,7 +7073,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -6384,7 +7084,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -6395,7 +7095,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -6406,7 +7106,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -6417,7 +7117,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -6428,7 +7128,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -6439,7 +7139,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -6450,7 +7150,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -6461,7 +7161,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>138</v>
+        <v>495</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -6472,7 +7172,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -6483,7 +7183,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -6494,7 +7194,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>454</v>
+        <v>141</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -6505,7 +7205,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>297</v>
+        <v>498</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -6516,7 +7216,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>455</v>
+        <v>309</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -6527,7 +7227,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -6538,12 +7238,56 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6578,7 +7322,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -6589,7 +7333,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -6600,7 +7344,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -6611,7 +7355,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -6622,10 +7366,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -6633,7 +7377,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -6644,12 +7388,45 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6684,7 +7461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -6695,7 +7472,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>402</v>
+        <v>514</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -6706,7 +7483,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -6717,7 +7494,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -6725,11 +7502,10 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -6741,7 +7517,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -6753,12 +7529,35 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7462,7 +8261,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
